--- a/document/StatusTracker_1.xlsx
+++ b/document/StatusTracker_1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="100">
   <si>
     <r>
       <rPr>
@@ -337,6 +337,9 @@
     <t xml:space="preserve">Picking the best detection out of the probable detections based on the min and max parameters</t>
   </si>
   <si>
+    <t xml:space="preserve">Rohan, Antony</t>
+  </si>
+  <si>
     <t xml:space="preserve">Logging the postion and time into a file</t>
   </si>
   <si>
@@ -521,7 +524,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -646,10 +649,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -668,14 +667,6 @@
     </xf>
     <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -806,11 +797,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.2602040816326"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.8418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.3010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -971,22 +962,22 @@
   </sheetPr>
   <dimension ref="A1:AO320"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E63" activeCellId="0" sqref="E63"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="80.8622448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="29" min="10" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="79.9132653061225"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.3928571428571"/>
+    <col collapsed="false" hidden="false" max="29" min="10" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="13.9030612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3003,7 +2994,7 @@
       <c r="C47" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D47" s="31" t="n">
+      <c r="D47" s="6" t="n">
         <v>2</v>
       </c>
       <c r="E47" s="6" t="n">
@@ -3267,56 +3258,56 @@
       <c r="AB52" s="8"/>
       <c r="AC52" s="8"/>
     </row>
-    <row r="53" s="38" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="32" t="s">
+    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="36" t="str">
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="35" t="str">
         <f aca="false">IF(OR(D53="",E53=""),"",D53-E53)</f>
         <v/>
       </c>
-      <c r="I53" s="36" t="str">
+      <c r="I53" s="35" t="str">
         <f aca="false">IF(OR(H53="",E53=0),"",ABS(H53)/E53*100)</f>
         <v/>
       </c>
-      <c r="J53" s="37"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="37"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="37"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="37"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
-      <c r="U53" s="37"/>
-      <c r="V53" s="37"/>
-      <c r="W53" s="37"/>
-      <c r="X53" s="37"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="37"/>
-      <c r="AA53" s="37"/>
-      <c r="AB53" s="37"/>
-      <c r="AC53" s="37"/>
-      <c r="AD53" s="37"/>
-      <c r="AE53" s="37"/>
-      <c r="AF53" s="37"/>
-      <c r="AG53" s="37"/>
-      <c r="AH53" s="37"/>
-      <c r="AI53" s="37"/>
-      <c r="AJ53" s="37"/>
-      <c r="AK53" s="37"/>
-      <c r="AL53" s="37"/>
-      <c r="AM53" s="37"/>
-      <c r="AN53" s="37"/>
-      <c r="AO53" s="37"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="8"/>
+      <c r="AN53" s="8"/>
+      <c r="AO53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
@@ -3610,7 +3601,7 @@
         <v>50</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D60" s="6" t="n">
         <v>1</v>
@@ -3653,7 +3644,7 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>50</v>
@@ -3698,7 +3689,7 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>32</v>
@@ -3747,7 +3738,7 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>50</v>
@@ -3794,44 +3785,44 @@
       <c r="AB63" s="8"/>
       <c r="AC63" s="8"/>
     </row>
-    <row r="64" s="38" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="34"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="33"/>
-      <c r="H64" s="36" t="str">
+    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="35" t="str">
         <f aca="false">IF(OR(D64="",E64=""),"",D64-E64)</f>
         <v/>
       </c>
-      <c r="I64" s="36" t="str">
+      <c r="I64" s="35" t="str">
         <f aca="false">IF(OR(H64="",E64=0),"",ABS(H64)/E64*100)</f>
         <v/>
       </c>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="Y64" s="37"/>
-      <c r="Z64" s="37"/>
-      <c r="AA64" s="37"/>
-      <c r="AB64" s="37"/>
-      <c r="AC64" s="37"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="8"/>
@@ -3871,7 +3862,7 @@
       <c r="AC65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="39"/>
+      <c r="A66" s="36"/>
       <c r="B66" s="8"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -4278,7 +4269,7 @@
       <c r="AC76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="39"/>
+      <c r="A77" s="36"/>
       <c r="B77" s="8"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -4500,7 +4491,7 @@
       <c r="AC82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="39"/>
+      <c r="A83" s="36"/>
       <c r="B83" s="8"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -4759,7 +4750,7 @@
       <c r="AC89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="39"/>
+      <c r="A90" s="36"/>
       <c r="B90" s="8"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>

--- a/document/StatusTracker_1.xlsx
+++ b/document/StatusTracker_1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="99">
   <si>
     <r>
       <rPr>
@@ -154,9 +154,6 @@
     <t xml:space="preserve">Rohan &amp; Aadil</t>
   </si>
   <si>
-    <t xml:space="preserve">Planned</t>
-  </si>
-  <si>
     <t xml:space="preserve">Week 2 (August 13 - August  19)</t>
   </si>
   <si>
@@ -259,7 +256,7 @@
     <t xml:space="preserve">Week 6 (September 10 – September 16)</t>
   </si>
   <si>
-    <t xml:space="preserve">Recieve mesh models from the client</t>
+    <t xml:space="preserve">Receive mesh models from the client</t>
   </si>
   <si>
     <t xml:space="preserve">Aadil, Rohan, Antony</t>
@@ -645,8 +642,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -661,11 +658,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -797,11 +794,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.3010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.4489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.7602040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -962,22 +959,22 @@
   </sheetPr>
   <dimension ref="A1:AO320"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F63" activeCellId="0" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="79.9132653061225"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.3928571428571"/>
-    <col collapsed="false" hidden="false" max="29" min="10" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="13.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.9693877551021"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="29" min="10" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="13.6326530612245"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1448,7 +1445,7 @@
         <v>2.5</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="26" t="n">
@@ -1481,7 +1478,7 @@
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -1562,7 +1559,7 @@
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>26</v>
@@ -1611,13 +1608,13 @@
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D16" s="6" t="n">
         <v>1.5</v>
@@ -1659,13 +1656,13 @@
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>0.25</v>
@@ -1708,13 +1705,13 @@
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>1.5</v>
@@ -1760,10 +1757,10 @@
         <v>28</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="6" t="n">
         <v>1.5</v>
@@ -1805,18 +1802,18 @@
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="26" t="str">
@@ -1850,13 +1847,13 @@
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="6" t="n">
         <v>4.5</v>
@@ -1865,7 +1862,7 @@
         <v>6.5</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="26" t="n">
@@ -1899,13 +1896,13 @@
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="22"/>
       <c r="D22" s="22"/>
       <c r="E22" s="22"/>
-      <c r="F22" s="28"/>
+      <c r="F22" s="22"/>
       <c r="G22" s="28"/>
       <c r="H22" s="25" t="str">
         <f aca="false">IF(OR(D22="",E22=""),"",D22-E22)</f>
@@ -1938,13 +1935,13 @@
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" s="6" t="n">
         <v>4.5</v>
@@ -1986,13 +1983,13 @@
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="2" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" s="6" t="n">
         <v>1.5</v>
@@ -2034,13 +2031,13 @@
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>15</v>
@@ -2082,13 +2079,13 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="C26" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="6" t="n">
         <v>10</v>
@@ -2100,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H26" s="26" t="n">
         <f aca="false">IF(OR(D26="",E26=""),"",D26-E26)</f>
@@ -2133,13 +2130,13 @@
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="6" t="n">
         <v>12</v>
@@ -2148,7 +2145,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H27" s="26" t="n">
         <f aca="false">IF(OR(D27="",E27=""),"",D27-E27)</f>
@@ -2181,13 +2178,13 @@
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
-      <c r="F28" s="28"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="28"/>
       <c r="H28" s="25" t="str">
         <f aca="false">IF(OR(D28="",E28=""),"",D28-E28)</f>
@@ -2220,13 +2217,13 @@
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D29" s="6" t="n">
         <v>8</v>
@@ -2235,7 +2232,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="26" t="n">
@@ -2269,13 +2266,13 @@
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="D30" s="6" t="n">
         <v>9</v>
@@ -2318,13 +2315,13 @@
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="C31" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" s="6" t="n">
         <v>4</v>
@@ -2367,13 +2364,13 @@
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D32" s="6" t="n">
         <v>4</v>
@@ -2385,7 +2382,7 @@
         <v>24</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H32" s="26" t="n">
         <f aca="false">IF(OR(D32="",E32=""),"",D32-E32)</f>
@@ -2418,7 +2415,7 @@
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
@@ -2451,13 +2448,13 @@
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D34" s="6" t="n">
         <v>4</v>
@@ -2500,13 +2497,13 @@
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D35" s="6" t="n">
         <v>9</v>
@@ -2515,10 +2512,10 @@
         <v>12</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H35" s="26" t="n">
         <f aca="false">IF(OR(D35="",E35=""),"",D35-E35)</f>
@@ -2551,13 +2548,13 @@
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="D36" s="6" t="n">
         <v>3</v>
@@ -2600,18 +2597,18 @@
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="26" t="str">
@@ -2645,7 +2642,7 @@
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="22"/>
@@ -2678,13 +2675,13 @@
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" s="6" t="n">
         <v>6</v>
@@ -2693,7 +2690,7 @@
         <v>8</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="26" t="n">
@@ -2727,22 +2724,32 @@
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="D40" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E40" s="6" t="n">
+        <v>4</v>
+      </c>
       <c r="F40" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G40" s="8"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
+      <c r="H40" s="26" t="n">
+        <f aca="false">IF(OR(D40="",E40=""),"",D40-E40)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="26" t="n">
+        <f aca="false">IF(OR(H40="",E40=0),"",ABS(H40)/E40*100)</f>
+        <v>0</v>
+      </c>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
@@ -2766,13 +2773,13 @@
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D41" s="6" t="n">
         <v>0.5</v>
@@ -2815,7 +2822,7 @@
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -2848,26 +2855,41 @@
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
+        <v>37</v>
+      </c>
+      <c r="D43" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="E43" s="30" t="n">
+        <v>6</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" s="26" t="n">
+        <f aca="false">IF(OR(D43="",E43=""),"",D43-E43)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="26" t="n">
+        <f aca="false">IF(OR(H43="",E43=0),"",ABS(H43)/E43*100)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" s="6" t="n">
         <v>7</v>
@@ -2876,11 +2898,17 @@
         <v>8</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G44" s="8"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
+      <c r="H44" s="26" t="n">
+        <f aca="false">IF(OR(D44="",E44=""),"",D44-E44)</f>
+        <v>-1</v>
+      </c>
+      <c r="I44" s="26" t="n">
+        <f aca="false">IF(OR(H44="",E44=0),"",ABS(H44)/E44*100)</f>
+        <v>12.5</v>
+      </c>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
@@ -2904,13 +2932,13 @@
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="6" t="n">
         <v>10</v>
@@ -2919,7 +2947,7 @@
         <v>14</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="26" t="n">
@@ -2953,7 +2981,7 @@
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="22"/>
@@ -2986,13 +3014,13 @@
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D47" s="6" t="n">
         <v>2</v>
@@ -3035,20 +3063,20 @@
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D48" s="6" t="n">
         <v>9</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="26" t="str">
@@ -3082,20 +3110,20 @@
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D49" s="6" t="n">
         <v>8</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G49" s="8"/>
       <c r="H49" s="26" t="str">
@@ -3129,20 +3157,20 @@
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="D50" s="6" t="n">
         <v>6</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="26" t="str">
@@ -3176,13 +3204,13 @@
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D51" s="6" t="n">
         <v>4</v>
@@ -3190,10 +3218,18 @@
       <c r="E51" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F51" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="G51" s="8"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
+      <c r="H51" s="26" t="n">
+        <f aca="false">IF(OR(D51="",E51=""),"",D51-E51)</f>
+        <v>-3</v>
+      </c>
+      <c r="I51" s="26" t="n">
+        <f aca="false">IF(OR(H51="",E51=0),"",ABS(H51)/E51*100)</f>
+        <v>42.8571428571429</v>
+      </c>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
@@ -3217,13 +3253,13 @@
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D52" s="6" t="n">
         <v>3</v>
@@ -3235,8 +3271,14 @@
         <v>24</v>
       </c>
       <c r="G52" s="8"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
+      <c r="H52" s="26" t="n">
+        <f aca="false">IF(OR(D52="",E52=""),"",D52-E52)</f>
+        <v>-5</v>
+      </c>
+      <c r="I52" s="26" t="n">
+        <f aca="false">IF(OR(H52="",E52=0),"",ABS(H52)/E52*100)</f>
+        <v>62.5</v>
+      </c>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
@@ -3260,19 +3302,19 @@
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B53" s="32"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
-      <c r="F53" s="34"/>
+      <c r="F53" s="33"/>
       <c r="G53" s="32"/>
-      <c r="H53" s="35" t="str">
+      <c r="H53" s="34" t="str">
         <f aca="false">IF(OR(D53="",E53=""),"",D53-E53)</f>
         <v/>
       </c>
-      <c r="I53" s="35" t="str">
+      <c r="I53" s="34" t="str">
         <f aca="false">IF(OR(H53="",E53=0),"",ABS(H53)/E53*100)</f>
         <v/>
       </c>
@@ -3311,27 +3353,31 @@
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="D54" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" s="6" t="n">
+        <v>6</v>
+      </c>
       <c r="F54" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G54" s="8"/>
-      <c r="H54" s="26" t="str">
+      <c r="H54" s="26" t="n">
         <f aca="false">IF(OR(D54="",E54=""),"",D54-E54)</f>
-        <v/>
-      </c>
-      <c r="I54" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I54" s="26" t="n">
         <f aca="false">IF(OR(H54="",E54=0),"",ABS(H54)/E54*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
@@ -3356,13 +3402,13 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D55" s="6" t="n">
         <v>2</v>
@@ -3405,13 +3451,13 @@
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D56" s="6" t="n">
         <v>1</v>
@@ -3454,13 +3500,13 @@
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>91</v>
       </c>
       <c r="D57" s="6" t="n">
         <v>3</v>
@@ -3503,13 +3549,13 @@
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>23</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D58" s="6" t="n">
         <v>6</v>
@@ -3546,13 +3592,13 @@
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D59" s="6" t="n">
         <v>2</v>
@@ -3595,13 +3641,13 @@
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>95</v>
       </c>
       <c r="D60" s="6" t="n">
         <v>1</v>
@@ -3644,27 +3690,31 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="D61" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E61" s="6" t="n">
+        <v>1</v>
+      </c>
       <c r="F61" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G61" s="8"/>
-      <c r="H61" s="26" t="str">
+      <c r="H61" s="26" t="n">
         <f aca="false">IF(OR(D61="",E61=""),"",D61-E61)</f>
-        <v/>
-      </c>
-      <c r="I61" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I61" s="26" t="n">
         <f aca="false">IF(OR(H61="",E61=0),"",ABS(H61)/E61*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
@@ -3689,7 +3739,7 @@
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>32</v>
@@ -3738,13 +3788,13 @@
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D63" s="6" t="n">
         <v>1</v>
@@ -3753,7 +3803,7 @@
         <v>2</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="26" t="n">
@@ -3787,19 +3837,19 @@
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B64" s="32"/>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
       <c r="E64" s="33"/>
-      <c r="F64" s="34"/>
+      <c r="F64" s="35"/>
       <c r="G64" s="32"/>
-      <c r="H64" s="35" t="str">
+      <c r="H64" s="34" t="str">
         <f aca="false">IF(OR(D64="",E64=""),"",D64-E64)</f>
         <v/>
       </c>
-      <c r="I64" s="35" t="str">
+      <c r="I64" s="34" t="str">
         <f aca="false">IF(OR(H64="",E64=0),"",ABS(H64)/E64*100)</f>
         <v/>
       </c>
@@ -12766,68 +12816,68 @@
       <c r="AC320" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="F35,F39:F41,F37,F43:F45,F47:F52,F54:F63">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Delayed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="F35,F39:F41,F37,F43:F45,F47:F52,F54:F63">
     <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="F35,F39:F41,F37,F43:F45,F47:F52,F54:F63">
     <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="F23:F26,F8:F12,F14:F21,F34,F29:F32">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Delayed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="F23:F26,F8:F12,F14:F21,F34,F29:F32">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="F23:F26,F8:F12,F14:F21,F34,F29:F32">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F36">
+  <conditionalFormatting sqref="F34,F27,F29:F32">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Delayed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F36">
+  <conditionalFormatting sqref="F34,F27,F29:F32">
     <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:F36">
+  <conditionalFormatting sqref="F34,F27,F29:F32">
     <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
+  <conditionalFormatting sqref="F36:F37,F39:F41,F43:F45,F54:F63,F47:F52">
     <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"Delayed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
+  <conditionalFormatting sqref="F36:F37,F39:F41,F43:F45,F54:F63,F47:F52">
     <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
+  <conditionalFormatting sqref="F36:F37,F39:F41,F43:F45,F54:F63,F47:F52">
     <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"Ongoing"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F5:F12 F14:F21 F23:F27 F29:F32 F34:F37 F39:F41 F44:F45 F47:F66 F77 F83 F90 F97:F320" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F5:F12 F14:F21 F23:F27 F29:F32 F34:F37 F39:F41 F43:F45 F47:F52 F54:F66 F77 F83 F90 F97:F320" type="list">
       <formula1>"Planned,Ongoing,Delayed,Done"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/document/StatusTracker_1.xlsx
+++ b/document/StatusTracker_1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="120">
   <si>
     <r>
       <rPr>
@@ -29,7 +29,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Using the Status tracker 
 </t>
@@ -37,9 +36,9 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- At the end of each week, update the status of all activities completed during the week.
 - The status tracker shown in this worksheet is an example tracker (values filled are during the middle of the week).
@@ -348,6 +347,69 @@
   <si>
     <t xml:space="preserve">Week 10(October 8 – October 15)</t>
   </si>
+  <si>
+    <t xml:space="preserve">Code Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyank &amp; Rohan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added functionality of taking video as argument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added more templates and training videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Figuring out problems with processing speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added video resolution reduction in main module</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added settings for 240p</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code Refactoring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 11(October 23 - October 30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Updated design document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added video writer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added more training videos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended code for 2 objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displaying name of object around bounding box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aadil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added fps, elapsed time display</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 12(October 31 - November 6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added functionality for handling multiple objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antony &amp; Priyank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discussed possibility of using SVM for increasing speed</t>
+  </si>
 </sst>
 </file>
 
@@ -363,7 +425,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -385,52 +446,45 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -439,17 +493,15 @@
       <color rgb="FF0000D4"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,7 +535,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
+        <bgColor rgb="FF7F7F7F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -521,7 +579,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -666,6 +724,30 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -679,57 +761,18 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFDD0806"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF006411"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Arial"/>
-        <charset val="1"/>
-        <family val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFCF305"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFDD0806"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFCF305"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006411"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -766,7 +809,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF7F7F7F"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -794,11 +837,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.4489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.7602040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.9081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.2244897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -959,22 +1002,22 @@
   </sheetPr>
   <dimension ref="A1:AO320"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F63" activeCellId="0" sqref="F63"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L71" activeCellId="0" sqref="L71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.9693877551021"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4387755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.8010204081633"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="29" min="10" style="0" width="7.83163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="13.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.0255102040816"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="29" min="10" style="0" width="7.69387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="13.3622448979592"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3875,20 +3918,32 @@
       <c r="AC64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="7"/>
+      <c r="A65" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="G65" s="8"/>
-      <c r="H65" s="26" t="str">
+      <c r="H65" s="26" t="n">
         <f aca="false">IF(OR(D65="",E65=""),"",D65-E65)</f>
-        <v/>
-      </c>
-      <c r="I65" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I65" s="26" t="n">
         <f aca="false">IF(OR(H65="",E65=0),"",ABS(H65)/E65*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
@@ -3912,20 +3967,32 @@
       <c r="AC65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="36"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="7"/>
+      <c r="A66" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E66" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="G66" s="8"/>
-      <c r="H66" s="26" t="str">
+      <c r="H66" s="26" t="n">
         <f aca="false">IF(OR(D66="",E66=""),"",D66-E66)</f>
-        <v/>
-      </c>
-      <c r="I66" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I66" s="26" t="n">
         <f aca="false">IF(OR(H66="",E66=0),"",ABS(H66)/E66*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
@@ -3949,20 +4016,32 @@
       <c r="AC66" s="8"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
+      <c r="A67" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D67" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G67" s="8"/>
-      <c r="H67" s="26" t="str">
+      <c r="H67" s="26" t="n">
         <f aca="false">IF(OR(D67="",E67=""),"",D67-E67)</f>
-        <v/>
-      </c>
-      <c r="I67" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I67" s="26" t="n">
         <f aca="false">IF(OR(H67="",E67=0),"",ABS(H67)/E67*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
@@ -3986,20 +4065,32 @@
       <c r="AC67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8"/>
-      <c r="B68" s="8"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
+      <c r="A68" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="G68" s="8"/>
-      <c r="H68" s="26" t="str">
+      <c r="H68" s="26" t="n">
         <f aca="false">IF(OR(D68="",E68=""),"",D68-E68)</f>
-        <v/>
-      </c>
-      <c r="I68" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I68" s="26" t="n">
         <f aca="false">IF(OR(H68="",E68=0),"",ABS(H68)/E68*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
@@ -4023,20 +4114,32 @@
       <c r="AC68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
+      <c r="A69" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D69" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G69" s="8"/>
-      <c r="H69" s="26" t="str">
+      <c r="H69" s="26" t="n">
         <f aca="false">IF(OR(D69="",E69=""),"",D69-E69)</f>
-        <v/>
-      </c>
-      <c r="I69" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I69" s="26" t="n">
         <f aca="false">IF(OR(H69="",E69=0),"",ABS(H69)/E69*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
@@ -4060,20 +4163,32 @@
       <c r="AC69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
+      <c r="A70" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E70" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G70" s="8"/>
-      <c r="H70" s="26" t="str">
+      <c r="H70" s="26" t="n">
         <f aca="false">IF(OR(D70="",E70=""),"",D70-E70)</f>
-        <v/>
-      </c>
-      <c r="I70" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I70" s="26" t="n">
         <f aca="false">IF(OR(H70="",E70=0),"",ABS(H70)/E70*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
@@ -4097,20 +4212,32 @@
       <c r="AC70" s="8"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
+      <c r="A71" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="G71" s="8"/>
-      <c r="H71" s="26" t="str">
+      <c r="H71" s="26" t="n">
         <f aca="false">IF(OR(D71="",E71=""),"",D71-E71)</f>
-        <v/>
-      </c>
-      <c r="I71" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I71" s="26" t="n">
         <f aca="false">IF(OR(H71="",E71=0),"",ABS(H71)/E71*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
@@ -4134,18 +4261,20 @@
       <c r="AC71" s="8"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8"/>
-      <c r="B72" s="8"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="26" t="str">
+      <c r="A72" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="38"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="41" t="str">
         <f aca="false">IF(OR(D72="",E72=""),"",D72-E72)</f>
         <v/>
       </c>
-      <c r="I72" s="26" t="str">
+      <c r="I72" s="41" t="str">
         <f aca="false">IF(OR(H72="",E72=0),"",ABS(H72)/E72*100)</f>
         <v/>
       </c>
@@ -4171,20 +4300,32 @@
       <c r="AC72" s="8"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
+      <c r="A73" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E73" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G73" s="8"/>
-      <c r="H73" s="26" t="str">
+      <c r="H73" s="26" t="n">
         <f aca="false">IF(OR(D73="",E73=""),"",D73-E73)</f>
-        <v/>
-      </c>
-      <c r="I73" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I73" s="26" t="n">
         <f aca="false">IF(OR(H73="",E73=0),"",ABS(H73)/E73*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
@@ -4208,20 +4349,32 @@
       <c r="AC73" s="8"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8"/>
-      <c r="B74" s="8"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
+      <c r="A74" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E74" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G74" s="8"/>
-      <c r="H74" s="26" t="str">
+      <c r="H74" s="26" t="n">
         <f aca="false">IF(OR(D74="",E74=""),"",D74-E74)</f>
-        <v/>
-      </c>
-      <c r="I74" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I74" s="26" t="n">
         <f aca="false">IF(OR(H74="",E74=0),"",ABS(H74)/E74*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
@@ -4245,20 +4398,32 @@
       <c r="AC74" s="8"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="8"/>
+      <c r="A75" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E75" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G75" s="8"/>
-      <c r="H75" s="26" t="str">
+      <c r="H75" s="26" t="n">
         <f aca="false">IF(OR(D75="",E75=""),"",D75-E75)</f>
-        <v/>
-      </c>
-      <c r="I75" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I75" s="26" t="n">
         <f aca="false">IF(OR(H75="",E75=0),"",ABS(H75)/E75*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
@@ -4282,20 +4447,32 @@
       <c r="AC75" s="8"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
+      <c r="A76" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E76" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G76" s="8"/>
-      <c r="H76" s="26" t="str">
+      <c r="H76" s="26" t="n">
         <f aca="false">IF(OR(D76="",E76=""),"",D76-E76)</f>
-        <v/>
-      </c>
-      <c r="I76" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I76" s="26" t="n">
         <f aca="false">IF(OR(H76="",E76=0),"",ABS(H76)/E76*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
@@ -4319,20 +4496,32 @@
       <c r="AC76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="36"/>
-      <c r="B77" s="8"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="7"/>
+      <c r="A77" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D77" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="G77" s="8"/>
-      <c r="H77" s="26" t="str">
+      <c r="H77" s="26" t="n">
         <f aca="false">IF(OR(D77="",E77=""),"",D77-E77)</f>
-        <v/>
-      </c>
-      <c r="I77" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I77" s="26" t="n">
         <f aca="false">IF(OR(H77="",E77=0),"",ABS(H77)/E77*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
@@ -4356,20 +4545,32 @@
       <c r="AC77" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
+      <c r="A78" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E78" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G78" s="8"/>
-      <c r="H78" s="26" t="str">
+      <c r="H78" s="26" t="n">
         <f aca="false">IF(OR(D78="",E78=""),"",D78-E78)</f>
-        <v/>
-      </c>
-      <c r="I78" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I78" s="26" t="n">
         <f aca="false">IF(OR(H78="",E78=0),"",ABS(H78)/E78*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
@@ -4393,20 +4594,32 @@
       <c r="AC78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
+      <c r="A79" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D79" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G79" s="8"/>
-      <c r="H79" s="26" t="str">
+      <c r="H79" s="26" t="n">
         <f aca="false">IF(OR(D79="",E79=""),"",D79-E79)</f>
-        <v/>
-      </c>
-      <c r="I79" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I79" s="26" t="n">
         <f aca="false">IF(OR(H79="",E79=0),"",ABS(H79)/E79*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
@@ -4430,18 +4643,20 @@
       <c r="AC79" s="8"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="26" t="str">
+      <c r="A80" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="38"/>
+      <c r="F80" s="38"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="41" t="str">
         <f aca="false">IF(OR(D80="",E80=""),"",D80-E80)</f>
         <v/>
       </c>
-      <c r="I80" s="26" t="str">
+      <c r="I80" s="41" t="str">
         <f aca="false">IF(OR(H80="",E80=0),"",ABS(H80)/E80*100)</f>
         <v/>
       </c>
@@ -4467,20 +4682,32 @@
       <c r="AC80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
+      <c r="A81" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E81" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>43</v>
+      </c>
       <c r="G81" s="8"/>
-      <c r="H81" s="26" t="str">
+      <c r="H81" s="26" t="n">
         <f aca="false">IF(OR(D81="",E81=""),"",D81-E81)</f>
-        <v/>
-      </c>
-      <c r="I81" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I81" s="26" t="n">
         <f aca="false">IF(OR(H81="",E81=0),"",ABS(H81)/E81*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
@@ -4504,20 +4731,32 @@
       <c r="AC81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
+      <c r="A82" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D82" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E82" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G82" s="8"/>
-      <c r="H82" s="26" t="str">
+      <c r="H82" s="26" t="n">
         <f aca="false">IF(OR(D82="",E82=""),"",D82-E82)</f>
-        <v/>
-      </c>
-      <c r="I82" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I82" s="26" t="n">
         <f aca="false">IF(OR(H82="",E82=0),"",ABS(H82)/E82*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
@@ -4541,20 +4780,32 @@
       <c r="AC82" s="8"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="36"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="7"/>
+      <c r="A83" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="G83" s="8"/>
-      <c r="H83" s="26" t="str">
+      <c r="H83" s="26" t="n">
         <f aca="false">IF(OR(D83="",E83=""),"",D83-E83)</f>
-        <v/>
-      </c>
-      <c r="I83" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I83" s="26" t="n">
         <f aca="false">IF(OR(H83="",E83=0),"",ABS(H83)/E83*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
@@ -4800,7 +5051,7 @@
       <c r="AC89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="36"/>
+      <c r="A90" s="42"/>
       <c r="B90" s="8"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
@@ -12816,73 +13067,21 @@
       <c r="AC320" s="8"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F35,F39:F41,F37,F43:F45,F47:F52,F54:F63">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"Delayed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35,F39:F41,F37,F43:F45,F47:F52,F54:F63">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F35,F39:F41,F37,F43:F45,F47:F52,F54:F63">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F26,F8:F12,F14:F21,F34,F29:F32">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"Delayed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F26,F8:F12,F14:F21,F34,F29:F32">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F23:F26,F8:F12,F14:F21,F34,F29:F32">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34,F27,F29:F32">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"Delayed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34,F27,F29:F32">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F34,F27,F29:F32">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F37,F39:F41,F43:F45,F54:F63,F47:F52">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"Delayed"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F37,F39:F41,F43:F45,F54:F63,F47:F52">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"Done"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F36:F37,F39:F41,F43:F45,F54:F63,F47:F52">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"Ongoing"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F5:F12 F14:F21 F23:F27 F29:F32 F34:F37 F39:F41 F43:F45 F47:F52 F54:F66 F77 F83 F90 F97:F320" type="list">
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5:B12 B14:B21 B23:B27 B29:B32 B34:B37 B39:B41 B44:B45 B47:B63 B90 B97:B320" type="list">
+      <formula1>"Requirements,Design,Development,Testing,Preparation,Coordination,Documentation,Interfaces,Delivery"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F5:F12 F14:F21 F23:F27 F29:F32 F34:F37 F39:F41 F43:F45 F47:F52 F54:F63 F90 F97:F320" type="list">
       <formula1>"Planned,Ongoing,Delayed,Done"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B5:B12 B14:B21 B23:B27 B29:B32 B34:B37 B39:B41 B44:B45 B47:B77 B83 B90 B97:B320" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B64:B77 B83" type="list">
       <formula1>"Requirements,Design,Development,Testing,Preparation,Coordination,Documentation,Interfaces,Delivery"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F64:F66 F77 F83" type="list">
+      <formula1>"Planned,Ongoing,Delayed,Done"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>

--- a/document/StatusTracker_1.xlsx
+++ b/document/StatusTracker_1.xlsx
@@ -29,6 +29,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Using the Status tracker 
 </t>
@@ -39,6 +40,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">- At the end of each week, update the status of all activities completed during the week.
 - The status tracker shown in this worksheet is an example tracker (values filled are during the middle of the week).
@@ -425,6 +427,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -446,45 +449,53 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -493,12 +504,14 @@
       <color rgb="FF0000D4"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -579,7 +592,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -744,10 +757,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -837,11 +846,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.9081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3673469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.6836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1002,22 +1011,22 @@
   </sheetPr>
   <dimension ref="A1:AO320"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A50" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L71" activeCellId="0" sqref="L71"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G75" activeCellId="0" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.0255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1683673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="29" min="10" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.0816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2551020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="29" min="10" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="13.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3888,14 +3897,8 @@
       <c r="E64" s="33"/>
       <c r="F64" s="35"/>
       <c r="G64" s="32"/>
-      <c r="H64" s="34" t="str">
-        <f aca="false">IF(OR(D64="",E64=""),"",D64-E64)</f>
-        <v/>
-      </c>
-      <c r="I64" s="34" t="str">
-        <f aca="false">IF(OR(H64="",E64=0),"",ABS(H64)/E64*100)</f>
-        <v/>
-      </c>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
@@ -4270,14 +4273,8 @@
       <c r="E72" s="40"/>
       <c r="F72" s="39"/>
       <c r="G72" s="38"/>
-      <c r="H72" s="41" t="str">
-        <f aca="false">IF(OR(D72="",E72=""),"",D72-E72)</f>
-        <v/>
-      </c>
-      <c r="I72" s="41" t="str">
-        <f aca="false">IF(OR(H72="",E72=0),"",ABS(H72)/E72*100)</f>
-        <v/>
-      </c>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
@@ -4652,14 +4649,8 @@
       <c r="E80" s="38"/>
       <c r="F80" s="38"/>
       <c r="G80" s="38"/>
-      <c r="H80" s="41" t="str">
-        <f aca="false">IF(OR(D80="",E80=""),"",D80-E80)</f>
-        <v/>
-      </c>
-      <c r="I80" s="41" t="str">
-        <f aca="false">IF(OR(H80="",E80=0),"",ABS(H80)/E80*100)</f>
-        <v/>
-      </c>
+      <c r="H80" s="38"/>
+      <c r="I80" s="38"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8"/>
@@ -5051,7 +5042,7 @@
       <c r="AC89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="42"/>
+      <c r="A90" s="41"/>
       <c r="B90" s="8"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>

--- a/document/StatusTracker_1.xlsx
+++ b/document/StatusTracker_1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="142">
   <si>
     <r>
       <rPr>
@@ -411,6 +411,72 @@
   </si>
   <si>
     <t xml:space="preserve">Discussed possibility of using SVM for increasing speed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifeied template generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code linting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi threading for all objects </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added progress bar functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Font size for the label increased</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyank and Rohan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed functionality for multiple objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyank, Antony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 13(November 7 – November 10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrote test scripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed bugs found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aadil and Rohan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Added progress bar for template generator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interfaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cleaned up the old templates and generated new ones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aadil and Priyank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolving merge conflicts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolved accuracy issues and np.line bugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aadil and Antony</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shot presentation video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delivery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video editing</t>
   </si>
 </sst>
 </file>
@@ -592,7 +658,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -757,10 +823,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -846,11 +908,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.6836734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.9642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.1428571428571"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="7.4234693877551"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="7.83163265306122"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1011,22 +1072,21 @@
   </sheetPr>
   <dimension ref="A1:AO320"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G75" activeCellId="0" sqref="G75"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F104" activeCellId="0" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.0816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2551020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="29" min="10" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.2704081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.09183673469388"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="29" min="10" style="0" width="7.4234693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4820,20 +4880,32 @@
       <c r="AC83" s="8"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
+      <c r="A84" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D84" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E84" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G84" s="8"/>
-      <c r="H84" s="26" t="str">
+      <c r="H84" s="26" t="n">
         <f aca="false">IF(OR(D84="",E84=""),"",D84-E84)</f>
-        <v/>
-      </c>
-      <c r="I84" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I84" s="26" t="n">
         <f aca="false">IF(OR(H84="",E84=0),"",ABS(H84)/E84*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
@@ -4857,20 +4929,32 @@
       <c r="AC84" s="8"/>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
+      <c r="A85" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D85" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E85" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G85" s="8"/>
-      <c r="H85" s="26" t="str">
+      <c r="H85" s="26" t="n">
         <f aca="false">IF(OR(D85="",E85=""),"",D85-E85)</f>
-        <v/>
-      </c>
-      <c r="I85" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I85" s="26" t="n">
         <f aca="false">IF(OR(H85="",E85=0),"",ABS(H85)/E85*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
@@ -4894,20 +4978,32 @@
       <c r="AC85" s="8"/>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
+      <c r="A86" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D86" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E86" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G86" s="8"/>
-      <c r="H86" s="26" t="str">
+      <c r="H86" s="26" t="n">
         <f aca="false">IF(OR(D86="",E86=""),"",D86-E86)</f>
-        <v/>
-      </c>
-      <c r="I86" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I86" s="26" t="n">
         <f aca="false">IF(OR(H86="",E86=0),"",ABS(H86)/E86*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
@@ -4931,20 +5027,32 @@
       <c r="AC86" s="8"/>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
+      <c r="A87" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D87" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G87" s="8"/>
-      <c r="H87" s="26" t="str">
+      <c r="H87" s="26" t="n">
         <f aca="false">IF(OR(D87="",E87=""),"",D87-E87)</f>
-        <v/>
-      </c>
-      <c r="I87" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I87" s="26" t="n">
         <f aca="false">IF(OR(H87="",E87=0),"",ABS(H87)/E87*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
@@ -4968,20 +5076,32 @@
       <c r="AC87" s="8"/>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
+      <c r="A88" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D88" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E88" s="6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G88" s="8"/>
-      <c r="H88" s="26" t="str">
+      <c r="H88" s="26" t="n">
         <f aca="false">IF(OR(D88="",E88=""),"",D88-E88)</f>
-        <v/>
-      </c>
-      <c r="I88" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I88" s="26" t="n">
         <f aca="false">IF(OR(H88="",E88=0),"",ABS(H88)/E88*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
@@ -5005,20 +5125,32 @@
       <c r="AC88" s="8"/>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
+      <c r="A89" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D89" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E89" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G89" s="8"/>
-      <c r="H89" s="26" t="str">
+      <c r="H89" s="26" t="n">
         <f aca="false">IF(OR(D89="",E89=""),"",D89-E89)</f>
-        <v/>
-      </c>
-      <c r="I89" s="26" t="str">
+        <v>-2</v>
+      </c>
+      <c r="I89" s="26" t="n">
         <f aca="false">IF(OR(H89="",E89=0),"",ABS(H89)/E89*100)</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
@@ -5042,18 +5174,20 @@
       <c r="AC89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="41"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="26" t="str">
+      <c r="A90" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B90" s="32"/>
+      <c r="C90" s="33"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="33"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="34" t="str">
         <f aca="false">IF(OR(D90="",E90=""),"",D90-E90)</f>
         <v/>
       </c>
-      <c r="I90" s="26" t="str">
+      <c r="I90" s="34" t="str">
         <f aca="false">IF(OR(H90="",E90=0),"",ABS(H90)/E90*100)</f>
         <v/>
       </c>
@@ -5079,20 +5213,32 @@
       <c r="AC90" s="8"/>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
+      <c r="A91" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" s="6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G91" s="8"/>
-      <c r="H91" s="26" t="str">
+      <c r="H91" s="26" t="n">
         <f aca="false">IF(OR(D91="",E91=""),"",D91-E91)</f>
-        <v/>
-      </c>
-      <c r="I91" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I91" s="26" t="n">
         <f aca="false">IF(OR(H91="",E91=0),"",ABS(H91)/E91*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
@@ -5116,20 +5262,32 @@
       <c r="AC91" s="8"/>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
+      <c r="A92" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D92" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E92" s="6" t="n">
+        <v>6</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G92" s="8"/>
-      <c r="H92" s="26" t="str">
+      <c r="H92" s="26" t="n">
         <f aca="false">IF(OR(D92="",E92=""),"",D92-E92)</f>
-        <v/>
-      </c>
-      <c r="I92" s="26" t="str">
+        <v>-3</v>
+      </c>
+      <c r="I92" s="26" t="n">
         <f aca="false">IF(OR(H92="",E92=0),"",ABS(H92)/E92*100)</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
@@ -5153,20 +5311,32 @@
       <c r="AC92" s="8"/>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
+      <c r="A93" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D93" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E93" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G93" s="8"/>
-      <c r="H93" s="26" t="str">
+      <c r="H93" s="26" t="n">
         <f aca="false">IF(OR(D93="",E93=""),"",D93-E93)</f>
-        <v/>
-      </c>
-      <c r="I93" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I93" s="26" t="n">
         <f aca="false">IF(OR(H93="",E93=0),"",ABS(H93)/E93*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
@@ -5190,20 +5360,32 @@
       <c r="AC93" s="8"/>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
+      <c r="A94" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D94" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E94" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G94" s="8"/>
-      <c r="H94" s="26" t="str">
+      <c r="H94" s="26" t="n">
         <f aca="false">IF(OR(D94="",E94=""),"",D94-E94)</f>
-        <v/>
-      </c>
-      <c r="I94" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I94" s="26" t="n">
         <f aca="false">IF(OR(H94="",E94=0),"",ABS(H94)/E94*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -5227,20 +5409,32 @@
       <c r="AC94" s="8"/>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
+      <c r="A95" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D95" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E95" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G95" s="8"/>
-      <c r="H95" s="26" t="str">
+      <c r="H95" s="26" t="n">
         <f aca="false">IF(OR(D95="",E95=""),"",D95-E95)</f>
-        <v/>
-      </c>
-      <c r="I95" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I95" s="26" t="n">
         <f aca="false">IF(OR(H95="",E95=0),"",ABS(H95)/E95*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
@@ -5264,20 +5458,32 @@
       <c r="AC95" s="8"/>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
+      <c r="A96" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D96" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E96" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G96" s="8"/>
-      <c r="H96" s="26" t="str">
+      <c r="H96" s="26" t="n">
         <f aca="false">IF(OR(D96="",E96=""),"",D96-E96)</f>
-        <v/>
-      </c>
-      <c r="I96" s="26" t="str">
+        <v>-1</v>
+      </c>
+      <c r="I96" s="26" t="n">
         <f aca="false">IF(OR(H96="",E96=0),"",ABS(H96)/E96*100)</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
@@ -5301,20 +5507,32 @@
       <c r="AC96" s="8"/>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="7"/>
+      <c r="A97" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D97" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E97" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="G97" s="8"/>
-      <c r="H97" s="26" t="str">
+      <c r="H97" s="26" t="n">
         <f aca="false">IF(OR(D97="",E97=""),"",D97-E97)</f>
-        <v/>
-      </c>
-      <c r="I97" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I97" s="26" t="n">
         <f aca="false">IF(OR(H97="",E97=0),"",ABS(H97)/E97*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
@@ -5338,20 +5556,32 @@
       <c r="AC97" s="8"/>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="7"/>
+      <c r="A98" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E98" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="G98" s="8"/>
-      <c r="H98" s="26" t="str">
+      <c r="H98" s="26" t="n">
         <f aca="false">IF(OR(D98="",E98=""),"",D98-E98)</f>
-        <v/>
-      </c>
-      <c r="I98" s="26" t="str">
+        <v>-2</v>
+      </c>
+      <c r="I98" s="26" t="n">
         <f aca="false">IF(OR(H98="",E98=0),"",ABS(H98)/E98*100)</f>
-        <v/>
+        <v>50</v>
       </c>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
@@ -5375,20 +5605,32 @@
       <c r="AC98" s="8"/>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="7"/>
+      <c r="A99" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E99" s="6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="G99" s="8"/>
-      <c r="H99" s="26" t="str">
+      <c r="H99" s="26" t="n">
         <f aca="false">IF(OR(D99="",E99=""),"",D99-E99)</f>
-        <v/>
-      </c>
-      <c r="I99" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I99" s="26" t="n">
         <f aca="false">IF(OR(H99="",E99=0),"",ABS(H99)/E99*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
@@ -5412,20 +5654,32 @@
       <c r="AC99" s="8"/>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="6"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="7"/>
+      <c r="A100" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D100" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E100" s="6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F100" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="G100" s="8"/>
-      <c r="H100" s="26" t="str">
+      <c r="H100" s="26" t="n">
         <f aca="false">IF(OR(D100="",E100=""),"",D100-E100)</f>
-        <v/>
-      </c>
-      <c r="I100" s="26" t="str">
+        <v>0</v>
+      </c>
+      <c r="I100" s="26" t="n">
         <f aca="false">IF(OR(H100="",E100=0),"",ABS(H100)/E100*100)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
